--- a/【长沙】-杨赛舟-进度表.xlsx
+++ b/【长沙】-杨赛舟-进度表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>日期</t>
   </si>
@@ -37,19 +37,31 @@
     <t>第一天</t>
   </si>
   <si>
-    <t>完成四个页面的HTML+css</t>
+    <t>四个页面的HTML+css</t>
   </si>
   <si>
     <t>第二天</t>
   </si>
   <si>
+    <t>页面操作效果</t>
+  </si>
+  <si>
     <t>第三天</t>
   </si>
   <si>
+    <t>注册，登录，与数据刷新</t>
+  </si>
+  <si>
     <t>第四天</t>
   </si>
   <si>
+    <t>整改，完善与个人想法添加</t>
+  </si>
+  <si>
     <t>第五天</t>
+  </si>
+  <si>
+    <t>答辩</t>
   </si>
 </sst>
 </file>
@@ -57,12 +69,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +92,105 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,112 +220,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -244,6 +249,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -269,120 +388,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,30 +434,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -467,6 +448,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,6 +511,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -534,148 +539,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1041,7 +1046,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1090,7 +1095,9 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1098,9 +1105,11 @@
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1108,9 +1117,11 @@
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1118,9 +1129,11 @@
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>

--- a/【长沙】-杨赛舟-进度表.xlsx
+++ b/【长沙】-杨赛舟-进度表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>日期</t>
   </si>
@@ -40,10 +40,34 @@
     <t>四个页面的HTML+css</t>
   </si>
   <si>
+    <t>完成百分之80%</t>
+  </si>
+  <si>
+    <t>晚上7点</t>
+  </si>
+  <si>
+    <t>需要更多的时间</t>
+  </si>
+  <si>
+    <t>收货就是将之前的html+css温习了一遍，然后还学习到了许多新的属性</t>
+  </si>
+  <si>
     <t>第二天</t>
   </si>
   <si>
     <t>页面操作效果</t>
+  </si>
+  <si>
+    <t>首页基本效果完成，注册和登录的效果也差不多</t>
+  </si>
+  <si>
+    <t>晚上8点</t>
+  </si>
+  <si>
+    <t>ajax请求数据这块不熟练</t>
+  </si>
+  <si>
+    <t>学习了一些接口的使用和ajax请求数据的方法</t>
   </si>
   <si>
     <t>第三天</t>
@@ -1046,7 +1070,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1086,29 +1110,45 @@
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1117,10 +1157,10 @@
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1129,10 +1169,10 @@
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>

--- a/【长沙】-杨赛舟-进度表.xlsx
+++ b/【长沙】-杨赛舟-进度表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>日期</t>
   </si>
@@ -107,6 +107,22 @@
   </si>
   <si>
     <t>了解了一些插件的使用和ajax请求数据以及显示到页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在自己的任务基础上已经基本完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上7点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分页面没有完成，需要时间，遇到bug不能解决</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成了主页jQuery动画，使用自己存好的模板速度很快，但是看情况分析是很需要的</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -585,10 +601,18 @@
       <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
